--- a/dzxy.xlsx
+++ b/dzxy.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="235">
   <si>
     <t>orderID</t>
   </si>
@@ -412,85 +412,316 @@
     <t>经典赛程-活动列表页面</t>
   </si>
   <si>
-    <t>点击经典赛程-活动1详细信息按钮</t>
+    <t>点击经典赛程-活动-收集精锐奖章-入口</t>
+  </si>
+  <si>
+    <t>经典赛程-活动-收集精锐奖章-入口</t>
+  </si>
+  <si>
+    <t>校验经典赛程-活动-收集精锐奖章-详情</t>
+  </si>
+  <si>
+    <t>经典赛程-活动-收集精锐奖章-详情</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>点击经典赛程-活动-收集精锐奖章-详细</t>
   </si>
   <si>
     <t>经典赛程-活动-详细1按钮</t>
   </si>
   <si>
-    <t>3000</t>
-  </si>
-  <si>
-    <t>校验详细信息弹窗内容是否正确</t>
-  </si>
-  <si>
-    <t>经典赛程-活动1-详细</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
     <t>22</t>
   </si>
   <si>
-    <t>点击经典赛程-活动2详细信息按钮</t>
+    <t>校验经典赛程-活动-收集精锐奖章-详细</t>
+  </si>
+  <si>
+    <t>经典赛程-活动-收集精锐奖章-详细-详情</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>点击经典赛程-活动-雅典青年队篇-入口</t>
+  </si>
+  <si>
+    <t>经典赛程-活动-雅典青年队篇-入口</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>校验经典赛程-活动-雅典青年队篇-详情</t>
+  </si>
+  <si>
+    <t>经典赛程-活动-雅典青年队篇-详情</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>点击经典赛程-活动-雅典青年队篇-详细</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>校验经典赛程-活动-雅典青年队篇-详细</t>
+  </si>
+  <si>
+    <t>经典赛程-活动-雅典青年队篇-详细-详情</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>点击经典赛程-活动-巴黎青年队篇-入口</t>
+  </si>
+  <si>
+    <t>经典赛程-活动-巴黎青年队篇-入口</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>校验经典赛程-活动-巴黎青年队篇-详情</t>
+  </si>
+  <si>
+    <t>经典赛程-活动-巴黎青年队篇-详情</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>点击经典赛程-活动-巴黎青年队篇-详细</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>校验经典赛程-活动-巴黎青年队篇-详细</t>
+  </si>
+  <si>
+    <t>经典赛程-活动-巴黎青年队篇-详细-详情</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>点击经典赛程-活动-尼日利亚青年队篇-入口</t>
+  </si>
+  <si>
+    <t>经典赛程-活动-尼日利亚青年队篇-入口</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>校验经典赛程-活动-尼日利亚青年队篇-详情</t>
+  </si>
+  <si>
+    <t>经典赛程-活动-番外篇-尼日利亚-详情</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>点击经典赛程-活动-尼日利亚青年队篇-详细</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>校验经典赛程-活动-尼日利亚青年队篇-详细</t>
+  </si>
+  <si>
+    <t>经典赛程-活动-番外篇-尼日利亚-详细-详情</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>点击经典赛程-活动-丹麦青年队篇-入口</t>
+  </si>
+  <si>
+    <t>经典赛程-活动-丹麦青年队篇-入口</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>校验经典赛程-活动-丹麦青年队篇-详情</t>
+  </si>
+  <si>
+    <t>经典赛程-活动-番外篇-丹麦-详情</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>点击经典赛程-活动-丹麦青年队篇-详细</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>校验经典赛程-活动-丹麦青年队篇-详细</t>
+  </si>
+  <si>
+    <t>经典赛程-活动-番外篇-丹麦-详细-详情</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>点击经典赛程-活动-达比青年队篇-入口</t>
+  </si>
+  <si>
+    <t>经典赛程-活动-达比青年队篇-入口</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>校验经典赛程-活动-达比青年队篇-详情</t>
+  </si>
+  <si>
+    <t>经典赛程-活动-番外篇-达比-详情</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>点击经典赛程-活动-达比青年队篇-详细</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>校验经典赛程-活动-达比青年队篇-详细</t>
+  </si>
+  <si>
+    <t>经典赛程-活动-番外篇-达比-详细-详情</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>点击经典赛程-活动-米凯尔青年队篇-入口</t>
+  </si>
+  <si>
+    <t>经典赛程-活动-米凯尔青年队篇-入口</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>校验经典赛程-活动-米凯尔青年队篇-详情</t>
+  </si>
+  <si>
+    <t>经典赛程-活动-番外篇-米凯尔-详情</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>点击经典赛程-活动-米凯尔青年队篇-详细</t>
   </si>
   <si>
     <t>经典赛程-活动-详细2按钮</t>
   </si>
   <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>经典赛程-活动2-详细</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>点击经典赛程-活动3详细信息按钮</t>
+    <t>58</t>
+  </si>
+  <si>
+    <t>校验经典赛程-活动-米凯尔青年队篇-详细</t>
+  </si>
+  <si>
+    <t>经典赛程-活动-番外篇-米凯尔-详细-详情</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>点击经典赛程-活动-曽我青年队篇-入口</t>
+  </si>
+  <si>
+    <t>经典赛程-活动-曽我青年队篇-入口</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>校验经典赛程-活动-曽我青年队篇-详情</t>
+  </si>
+  <si>
+    <t>经典赛程-活动-番外篇-曾我-详情</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>点击经典赛程-活动-曽我青年队篇-详细</t>
   </si>
   <si>
     <t>经典赛程-活动-详细3按钮</t>
   </si>
   <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>经典赛程-活动3-详细</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>滑动到右面</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>34</t>
+    <t>64</t>
+  </si>
+  <si>
+    <t>校验经典赛程-活动-曽我青年队篇-详细</t>
+  </si>
+  <si>
+    <t>经典赛程-活动-番外篇-曾我-详细-详情</t>
+  </si>
+  <si>
+    <t>65</t>
   </si>
 </sst>
 </file>
@@ -498,10 +729,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -519,6 +750,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -527,16 +765,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -549,8 +779,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -581,35 +819,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -617,7 +826,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -632,10 +841,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -648,16 +857,38 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -672,7 +903,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,19 +1041,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -708,49 +1059,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -762,97 +1083,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -891,30 +1122,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -929,17 +1136,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -963,6 +1164,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -971,10 +1202,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -983,133 +1214,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2071,16 +2302,16 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55:D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.25" defaultRowHeight="22" customHeight="1" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="16.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="43.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="48.75" style="2" customWidth="1"/>
     <col min="3" max="3" width="16.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="61.5" style="2" customWidth="1"/>
     <col min="5" max="16384" width="16.25" style="1" customWidth="1"/>
@@ -2393,156 +2624,162 @@
         <v>84</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="1:4">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:5">
       <c r="A22" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:4">
+      <c r="A23" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:5">
+      <c r="A24" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D22" s="2" t="s">
+      <c r="C24" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" spans="1:5">
-      <c r="A23" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" customHeight="1" spans="1:4">
-      <c r="A24" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="25" customHeight="1" spans="1:4">
+      <c r="E24" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="26" customHeight="1" spans="1:5">
-      <c r="A26" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="D26" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>58</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="28" customHeight="1" spans="1:4">
+    <row r="28" customHeight="1" spans="1:5">
       <c r="A28" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>91</v>
+        <v>150</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>106</v>
@@ -2557,79 +2794,579 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" customHeight="1" spans="1:4">
+    <row r="31" customHeight="1" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="32" customHeight="1" spans="1:5">
+        <v>157</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" customHeight="1" spans="1:4">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="34" customHeight="1" spans="1:4">
+        <v>126</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:4">
+      <c r="A35" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="35" customHeight="1" spans="1:5">
-      <c r="A35" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B35" s="2" t="s">
+      <c r="D35" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:5">
+      <c r="A36" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D35" s="2" t="s">
+      <c r="C36" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E36" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="1:5">
+      <c r="A37" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="1:4">
+      <c r="A38" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:5">
+      <c r="A39" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="1:5">
+      <c r="A40" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="1:4">
+      <c r="A41" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="1:5">
+      <c r="A42" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="1:5">
+      <c r="A43" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="1:4">
+      <c r="A44" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="1:5">
+      <c r="A45" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="1:5">
+      <c r="A46" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="1:4">
+      <c r="A47" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="1:5">
+      <c r="A48" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="1:5">
+      <c r="A49" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="1:4">
+      <c r="A50" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="1:5">
+      <c r="A51" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="1:5">
+      <c r="A52" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="1:4">
+      <c r="A53" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="1:5">
+      <c r="A54" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="1:5">
+      <c r="A55" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="1:4">
+      <c r="A56" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="1:5">
+      <c r="A57" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="1:5">
+      <c r="A58" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="1:4">
+      <c r="A59" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="1:5">
+      <c r="A60" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="1:5">
+      <c r="A61" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="1:4">
+      <c r="A62" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="1:5">
+      <c r="A63" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="1:5">
+      <c r="A64" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="1:4">
+      <c r="A65" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="1:5">
+      <c r="A66" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E66" s="1" t="s">
         <v>58</v>
       </c>
     </row>
